--- a/docs/BLUESKY-COMMAND-TABLE.xlsx
+++ b/docs/BLUESKY-COMMAND-TABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="16995" windowHeight="10515"/>
+    <workbookView xWindow="720" yWindow="375" windowWidth="20835" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="BLUESKY-COMMAND-TABLE" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="386">
   <si>
     <t>Command</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Argument types</t>
   </si>
   <si>
+    <t>Function</t>
+  </si>
+  <si>
     <t>ADDNODES</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>int</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.addNodes of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>ADDWPT</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>acid,alt,[vspd]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Autopilot.selalt of bluesky.traf.autopilot.Autopilot object</t>
+  </si>
+  <si>
     <t>AREA</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
     <t>[onoff]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.toggle of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>AT</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>string</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.batch of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>BENCHMARK</t>
   </si>
   <si>
@@ -136,6 +151,9 @@
     <t>[txt,time]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.benchmark of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>BOX</t>
   </si>
   <si>
@@ -169,6 +187,9 @@
     <t>[txt]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetCDmethod of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>CIRCLE</t>
   </si>
   <si>
@@ -193,6 +214,9 @@
     <t>txt,txt,latlon,hdg,alt,spd</t>
   </si>
   <si>
+    <t xml:space="preserve"> Traffic.create of bluesky.traf.traffic.Traffic object</t>
+  </si>
+  <si>
     <t>DATAFEED</t>
   </si>
   <si>
@@ -202,6 +226,24 @@
     <t>DATAFEED [ON/OFF]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Modesbeast.toggle of bluesky.tools.datafeed.Modesbeast object</t>
+  </si>
+  <si>
+    <t>DEFWPT</t>
+  </si>
+  <si>
+    <t>Delete a waypoint from a route (FMS)</t>
+  </si>
+  <si>
+    <t>DEFWPT wpname,[lat,lon,type,refapt,countrycode]</t>
+  </si>
+  <si>
+    <t>txt,[latlon,txt,txt,txt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Navdatabase.defwpt of bluesky.navdb.navdb.Navdatabase instance</t>
+  </si>
+  <si>
     <t>DEL</t>
   </si>
   <si>
@@ -217,9 +259,6 @@
     <t>DELWPT</t>
   </si>
   <si>
-    <t>Delete a waypoint from a route (FMS)</t>
-  </si>
-  <si>
     <t>DELWPT acid,wpname</t>
   </si>
   <si>
@@ -274,6 +313,9 @@
     <t>float</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.setDt of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>DTLOOK</t>
   </si>
   <si>
@@ -286,6 +328,9 @@
     <t>[float]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetDtLook of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>DTMULT</t>
   </si>
   <si>
@@ -295,6 +340,9 @@
     <t>DTMULT multiplier</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.setDtMultiplier of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>DTNOLOOK</t>
   </si>
   <si>
@@ -304,6 +352,9 @@
     <t>DTNOLOOK [time]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetDtNoLook of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>DUMPRTE</t>
   </si>
   <si>
@@ -325,6 +376,9 @@
     <t>ECHO txt</t>
   </si>
   <si>
+    <t xml:space="preserve"> ScreenIO.echo of bluesky.sim.qtgl.screenio.ScreenIO object</t>
+  </si>
+  <si>
     <t>ENG</t>
   </si>
   <si>
@@ -337,6 +391,9 @@
     <t>acid,[txt]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Perf.engchange of bluesky.traf.perf.Perf instance</t>
+  </si>
+  <si>
     <t>FF</t>
   </si>
   <si>
@@ -349,6 +406,9 @@
     <t>[time]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.fastforward of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>FIXDT</t>
   </si>
   <si>
@@ -361,6 +421,9 @@
     <t>onoff,[time]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.setFixdt of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>GETWIND</t>
   </si>
   <si>
@@ -373,6 +436,9 @@
     <t>latlon,[alt]</t>
   </si>
   <si>
+    <t xml:space="preserve"> WindSim.get of bluesky.traf.windsim.WindSim instance</t>
+  </si>
+  <si>
     <t>HDG</t>
   </si>
   <si>
@@ -385,6 +451,9 @@
     <t>acid,float</t>
   </si>
   <si>
+    <t xml:space="preserve"> Autopilot.selhdg of bluesky.traf.autopilot.Autopilot object</t>
+  </si>
+  <si>
     <t>HELP</t>
   </si>
   <si>
@@ -400,6 +469,9 @@
     <t>Pause(hold) simulation</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.pause of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>IC</t>
   </si>
   <si>
@@ -421,6 +493,9 @@
     <t>INSEDIT txt</t>
   </si>
   <si>
+    <t xml:space="preserve"> ScreenIO.cmdline of bluesky.sim.qtgl.screenio.ScreenIO object</t>
+  </si>
+  <si>
     <t>INSTLOG</t>
   </si>
   <si>
@@ -433,6 +508,9 @@
     <t>[txt,float/txt,...]</t>
   </si>
   <si>
+    <t xml:space="preserve"> CSVLogger.stackio of bluesky.tools.datalog.CSVLogger instance</t>
+  </si>
+  <si>
     <t>LINE</t>
   </si>
   <si>
@@ -469,6 +547,9 @@
     <t>acid,[onoff]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Autopilot.setLNAV of bluesky.traf.autopilot.Autopilot object</t>
+  </si>
+  <si>
     <t>MCRE</t>
   </si>
   <si>
@@ -505,6 +586,9 @@
     <t>acid,latlon,[alt,hdg,spd,vspd]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Traffic.move of bluesky.traf.traffic.Traffic object</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
@@ -523,6 +607,9 @@
     <t>NOISE [ON/OFF]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Traffic.setNoise of bluesky.traf.traffic.Traffic object</t>
+  </si>
+  <si>
     <t>NOM</t>
   </si>
   <si>
@@ -532,6 +619,9 @@
     <t>NOM acid</t>
   </si>
   <si>
+    <t xml:space="preserve"> Traffic.nom of bluesky.traf.traffic.Traffic object</t>
+  </si>
+  <si>
     <t>NORESO</t>
   </si>
   <si>
@@ -541,12 +631,18 @@
     <t>NORESO [acid]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetNoreso of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>OP</t>
   </si>
   <si>
     <t>Start/Run simulation or continue after pause</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.start of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>ORIG</t>
   </si>
   <si>
@@ -568,6 +664,9 @@
     <t>pandir/latlon</t>
   </si>
   <si>
+    <t xml:space="preserve"> ScreenIO.pan of bluesky.sim.qtgl.screenio.ScreenIO object</t>
+  </si>
+  <si>
     <t>PCALL</t>
   </si>
   <si>
@@ -625,18 +724,27 @@
     <t>[onoff, txt]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetPrio of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>QUIT</t>
   </si>
   <si>
     <t>Quit program/Stop simulation</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.stop of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>RESET</t>
   </si>
   <si>
     <t>Reset simulation</t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.reset of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>RESO</t>
   </si>
   <si>
@@ -646,6 +754,9 @@
     <t>RESO [method]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetCRmethod of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RESOOFF</t>
   </si>
   <si>
@@ -655,6 +766,9 @@
     <t>RESOOFF [acid]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetResooff of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RFACH</t>
   </si>
   <si>
@@ -664,6 +778,9 @@
     <t>RFACH [factor]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetResoFacH of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RFACV</t>
   </si>
   <si>
@@ -673,6 +790,9 @@
     <t>RFACV [factor]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetResoFacV of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RMETHH</t>
   </si>
   <si>
@@ -682,6 +802,9 @@
     <t>RMETHH [method]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetResoHoriz of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RMETHV</t>
   </si>
   <si>
@@ -691,6 +814,9 @@
     <t>RMETHV [method]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetResoVert of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RSZONEDH</t>
   </si>
   <si>
@@ -700,6 +826,9 @@
     <t>RSZONEDH [height]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetPZHm of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RSZONER</t>
   </si>
   <si>
@@ -709,6 +838,9 @@
     <t>RSZONER [radius]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetPZRm of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>RUNWAYS</t>
   </si>
   <si>
@@ -736,6 +868,9 @@
     <t>SCEN scenname</t>
   </si>
   <si>
+    <t>function scenarioinit</t>
+  </si>
+  <si>
     <t>SEED</t>
   </si>
   <si>
@@ -745,6 +880,9 @@
     <t>SEED value</t>
   </si>
   <si>
+    <t>function setSeed</t>
+  </si>
+  <si>
     <t>SKYLOG</t>
   </si>
   <si>
@@ -775,6 +913,9 @@
     <t>acid,spd</t>
   </si>
   <si>
+    <t xml:space="preserve"> Autopilot.selspd of bluesky.traf.autopilot.Autopilot object</t>
+  </si>
+  <si>
     <t>SSD</t>
   </si>
   <si>
@@ -784,6 +925,9 @@
     <t>SSD acid/ALL/OFF</t>
   </si>
   <si>
+    <t xml:space="preserve"> ScreenIO.showssd of bluesky.sim.qtgl.screenio.ScreenIO object</t>
+  </si>
+  <si>
     <t>SWRAD</t>
   </si>
   <si>
@@ -796,12 +940,18 @@
     <t>txt,[float]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ScreenIO.feature of bluesky.sim.qtgl.screenio.ScreenIO object</t>
+  </si>
+  <si>
     <t>SYMBOL</t>
   </si>
   <si>
     <t>Toggle aircraft symbol</t>
   </si>
   <si>
+    <t xml:space="preserve"> ScreenIO.symbol of bluesky.sim.qtgl.screenio.ScreenIO object</t>
+  </si>
+  <si>
     <t>SYN</t>
   </si>
   <si>
@@ -826,6 +976,9 @@
     <t>onoff</t>
   </si>
   <si>
+    <t xml:space="preserve"> Area.setTaxi of bluesky.traf.area.Area instance</t>
+  </si>
+  <si>
     <t>TIME</t>
   </si>
   <si>
@@ -835,6 +988,9 @@
     <t xml:space="preserve">TIME RUN(default) / HH:MM:SS.hh / REAL / UTC </t>
   </si>
   <si>
+    <t xml:space="preserve"> Simulation.setclock of bluesky.sim.qtgl.simulation.Simulation object</t>
+  </si>
+  <si>
     <t>TRAIL</t>
   </si>
   <si>
@@ -847,6 +1003,9 @@
     <t>acid/bool,[float/txt]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Trails.setTrails of bluesky.traf.trails.Trails object</t>
+  </si>
+  <si>
     <t>VNAV</t>
   </si>
   <si>
@@ -856,6 +1015,9 @@
     <t>VNAV acid,[ON/OFF]</t>
   </si>
   <si>
+    <t xml:space="preserve"> Autopilot.setVNAV of bluesky.traf.autopilot.Autopilot object</t>
+  </si>
+  <si>
     <t>VS</t>
   </si>
   <si>
@@ -868,6 +1030,9 @@
     <t>acid,vspd</t>
   </si>
   <si>
+    <t xml:space="preserve"> Autopilot.selvspd of bluesky.traf.autopilot.Autopilot object</t>
+  </si>
+  <si>
     <t>WIND</t>
   </si>
   <si>
@@ -880,6 +1045,9 @@
     <t>latlon,[alt],float,float,...,...,...</t>
   </si>
   <si>
+    <t xml:space="preserve"> WindSim.add of bluesky.traf.windsim.WindSim instance</t>
+  </si>
+  <si>
     <t>ZONEDH</t>
   </si>
   <si>
@@ -889,6 +1057,9 @@
     <t>ZONEDH [height]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetPZH of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>ZONER</t>
   </si>
   <si>
@@ -898,6 +1069,9 @@
     <t>ZONER [radius]</t>
   </si>
   <si>
+    <t xml:space="preserve"> ASAS.SetPZR of bluesky.traf.asas.asas.ASAS object</t>
+  </si>
+  <si>
     <t>ZOOM</t>
   </si>
   <si>
@@ -995,6 +1169,9 @@
   </si>
   <si>
     <t>VRESOMETH</t>
+  </si>
+  <si>
+    <t>Define a new waypoint for this scenario</t>
   </si>
 </sst>
 </file>
@@ -1320,12 +1497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1455,80 +1632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1574,42 +1677,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1955,1518 +2036,1732 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="67" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37" style="4" customWidth="1"/>
+    <col min="5" max="5" width="79.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="C91" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="C93" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B94" s="9" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="C98" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B97" s="9" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>234</v>
+    </row>
+    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>175</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>203</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>119</v>
+      <c r="A114" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>222</v>
+      <c r="A115" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>222</v>
+      <c r="A116" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>222</v>
+      <c r="A117" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>223</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/BLUESKY-COMMAND-TABLE.xlsx
+++ b/docs/BLUESKY-COMMAND-TABLE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="390">
   <si>
     <t>Command</t>
   </si>
@@ -241,9 +241,6 @@
     <t>txt,[latlon,txt,txt,txt]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Navdatabase.defwpt of bluesky.navdb.navdb.Navdatabase instance</t>
-  </si>
-  <si>
     <t>DEL</t>
   </si>
   <si>
@@ -1171,7 +1168,22 @@
     <t>VRESOMETH</t>
   </si>
   <si>
-    <t>Define a new waypoint for this scenario</t>
+    <t>Define a waypoint only for this scenario/run</t>
+  </si>
+  <si>
+    <t>DELRTE</t>
+  </si>
+  <si>
+    <t>Delete for this a/c the complete route/dest/orig (FMS)</t>
+  </si>
+  <si>
+    <t>DELRTE acid</t>
+  </si>
+  <si>
+    <t>HEADING</t>
+  </si>
+  <si>
+    <t>SPEED</t>
   </si>
 </sst>
 </file>
@@ -2036,10 +2048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2326,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>73</v>
@@ -2322,1172 +2334,1185 @@
       <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>386</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>190</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="E57" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E73" s="2" t="s">
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E74" s="2" t="s">
+    </row>
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E75" s="2" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
+    </row>
+    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>320</v>
-      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E82" s="2" t="s">
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E86" s="2"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>62</v>
@@ -3498,266 +3523,288 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>264</v>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/docs/BLUESKY-COMMAND-TABLE.xlsx
+++ b/docs/BLUESKY-COMMAND-TABLE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
   <si>
     <t>Command</t>
   </si>
@@ -1184,6 +1184,12 @@
   </si>
   <si>
     <t>SPEED</t>
+  </si>
+  <si>
+    <t>DELWP</t>
+  </si>
+  <si>
+    <t>DELROUTE</t>
   </si>
 </sst>
 </file>
@@ -2048,10 +2054,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3532,108 +3538,108 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>385</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>87</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>258</v>
@@ -3644,166 +3650,188 @@
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>263</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>263</v>
       </c>
     </row>

--- a/docs/BLUESKY-COMMAND-TABLE.xlsx
+++ b/docs/BLUESKY-COMMAND-TABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="20835" windowHeight="11280"/>
+    <workbookView xWindow="720" yWindow="372" windowWidth="20832" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="BLUESKY-COMMAND-TABLE" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="395">
   <si>
     <t>Command</t>
   </si>
@@ -703,9 +703,6 @@
     <t>POS</t>
   </si>
   <si>
-    <t>Get info on aircraft</t>
-  </si>
-  <si>
     <t>POS acid</t>
   </si>
   <si>
@@ -1190,6 +1187,18 @@
   </si>
   <si>
     <t>DELROUTE</t>
+  </si>
+  <si>
+    <t>AIRWAY</t>
+  </si>
+  <si>
+    <t>Get info on airway</t>
+  </si>
+  <si>
+    <t>AIRWAY airway</t>
+  </si>
+  <si>
+    <t>Get info on aircraft, waypoint, airport or airway</t>
   </si>
 </sst>
 </file>
@@ -2054,22 +2063,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="67" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="37" style="4" customWidth="1"/>
-    <col min="5" max="5" width="79.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="79.5546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2133,1109 +2142,1107 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="2" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="2" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="2" t="s">
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>162</v>
@@ -3244,336 +3251,342 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E74" s="2" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2" t="s">
+    </row>
+    <row r="77" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E76" s="2" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
+    </row>
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E79" s="2" t="s">
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E80" s="2" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E81" s="2" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E82" s="2" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E83" s="2" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E84" s="2" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E88" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="B96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>86</v>
@@ -3582,108 +3595,108 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="B102" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B103" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B108" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    </row>
+    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>151</v>
@@ -3692,147 +3705,158 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B113" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B122" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B123" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
